--- a/data/trans_orig/P19C05-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C05-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>53087</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40164</v>
+        <v>40691</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>67056</v>
+        <v>68283</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.137424508541734</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1039694169675625</v>
+        <v>0.1053340251495625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1735850813918434</v>
+        <v>0.1767596860392706</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -765,19 +765,19 @@
         <v>35224</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24765</v>
+        <v>25051</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46703</v>
+        <v>47966</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1312933637064489</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09230839325810571</v>
+        <v>0.09337422007234937</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1740800870099775</v>
+        <v>0.1787872994200543</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>86</v>
@@ -786,19 +786,19 @@
         <v>88312</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>71321</v>
+        <v>71673</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>106613</v>
+        <v>108642</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1349116236846709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1089550804786829</v>
+        <v>0.1094930277856455</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1628702145435331</v>
+        <v>0.1659698110914502</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>333215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>319246</v>
+        <v>318019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>346138</v>
+        <v>345611</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.862575491458266</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8264149186081565</v>
+        <v>0.8232403139607292</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8960305830324374</v>
+        <v>0.8946659748504371</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>227</v>
@@ -836,19 +836,19 @@
         <v>233063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>221584</v>
+        <v>220321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>243522</v>
+        <v>243236</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8687066362935512</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8259199129900225</v>
+        <v>0.8212127005799458</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9076916067418943</v>
+        <v>0.9066257799276506</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>545</v>
@@ -857,19 +857,19 @@
         <v>566278</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>547977</v>
+        <v>545948</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>583269</v>
+        <v>582917</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8650883763153291</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8371297854564668</v>
+        <v>0.8340301889085497</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8910449195213171</v>
+        <v>0.8905069722143544</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>38055</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>28118</v>
+        <v>28107</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51039</v>
+        <v>51206</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1267617985827196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09366253212504852</v>
+        <v>0.09362600289506991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.17001220821523</v>
+        <v>0.1705686300547769</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -982,19 +982,19 @@
         <v>25420</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>16518</v>
+        <v>16355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35453</v>
+        <v>36813</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07620628461306066</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0495186071993108</v>
+        <v>0.04903010513126216</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1062839246741115</v>
+        <v>0.1103609226314696</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -1003,19 +1003,19 @@
         <v>63474</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49887</v>
+        <v>48974</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>80209</v>
+        <v>78544</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1001535183203754</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07871434191710022</v>
+        <v>0.07727428120035515</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.126558126643483</v>
+        <v>0.1239320932974616</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>262150</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>249166</v>
+        <v>248999</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>272087</v>
+        <v>272098</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8732382014172804</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.82998779178477</v>
+        <v>0.8294313699452232</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9063374678749515</v>
+        <v>0.9063739971049299</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>300</v>
@@ -1053,19 +1053,19 @@
         <v>308145</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>298112</v>
+        <v>296752</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>317047</v>
+        <v>317210</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9237937153869393</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8937160753258885</v>
+        <v>0.8896390773685299</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9504813928006892</v>
+        <v>0.9509698948687375</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>544</v>
@@ -1074,19 +1074,19 @@
         <v>570296</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>553561</v>
+        <v>555226</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>583883</v>
+        <v>584796</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8998464816796246</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8734418733565168</v>
+        <v>0.8760679067025383</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9212856580828996</v>
+        <v>0.9227257187996443</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>54694</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>41992</v>
+        <v>39939</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70210</v>
+        <v>68557</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1271160256330182</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09759535501511596</v>
+        <v>0.09282413507453754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1631775001699815</v>
+        <v>0.159335579129709</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -1199,19 +1199,19 @@
         <v>13611</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7729</v>
+        <v>7928</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21244</v>
+        <v>22241</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09717511590619383</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05518190245423148</v>
+        <v>0.05660038510432097</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.151666117813185</v>
+        <v>0.1587878290405963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>69</v>
@@ -1220,19 +1220,19 @@
         <v>68305</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>53059</v>
+        <v>54078</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84250</v>
+        <v>84484</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1197628624480205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09303164605469876</v>
+        <v>0.09481839823446649</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1477197111349336</v>
+        <v>0.1481298097744763</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>375573</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>360057</v>
+        <v>361710</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>388275</v>
+        <v>390328</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8728839743669818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8368224998300184</v>
+        <v>0.840664420870291</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9024046449848839</v>
+        <v>0.9071758649254624</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>125</v>
@@ -1270,19 +1270,19 @@
         <v>126457</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>118824</v>
+        <v>117827</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>132339</v>
+        <v>132140</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9028248840938061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.848333882186815</v>
+        <v>0.8412121709594037</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9448180975457685</v>
+        <v>0.943399614895679</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>494</v>
@@ -1291,19 +1291,19 @@
         <v>502030</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>486085</v>
+        <v>485851</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>517276</v>
+        <v>516257</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8802371375519795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8522802888650662</v>
+        <v>0.8518701902255236</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9069683539453013</v>
+        <v>0.9051816017655334</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>156239</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>133140</v>
+        <v>134928</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>177839</v>
+        <v>180479</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1792856249063456</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1527785976736944</v>
+        <v>0.1548310128249871</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.204071141121523</v>
+        <v>0.2071011316336144</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>83</v>
@@ -1416,19 +1416,19 @@
         <v>82013</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>66790</v>
+        <v>66490</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98859</v>
+        <v>100551</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.137548939292073</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1120172157037764</v>
+        <v>0.1115136101170504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.165800975161131</v>
+        <v>0.1686384696364849</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>241</v>
@@ -1437,19 +1437,19 @@
         <v>238252</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>212564</v>
+        <v>211680</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>267662</v>
+        <v>268141</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1623302514167281</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1448278395987783</v>
+        <v>0.144225578347048</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1823683063669666</v>
+        <v>0.1826941523164556</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>715215</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>693615</v>
+        <v>690975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>738314</v>
+        <v>736526</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8207143750936544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.795928858878477</v>
+        <v>0.7928988683663857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8472214023263058</v>
+        <v>0.8451689871750129</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>496</v>
@@ -1487,19 +1487,19 @@
         <v>514236</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>497390</v>
+        <v>495698</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>529459</v>
+        <v>529759</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8624510607079271</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8341990248388692</v>
+        <v>0.8313615303635151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8879827842962237</v>
+        <v>0.8884863898829496</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1203</v>
@@ -1508,19 +1508,19 @@
         <v>1229450</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1200040</v>
+        <v>1199561</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1255138</v>
+        <v>1256022</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8376697485832719</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8176316936330333</v>
+        <v>0.8173058476835442</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8551721604012218</v>
+        <v>0.8557744216529514</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>27867</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>18783</v>
+        <v>18353</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39911</v>
+        <v>38869</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1124012587142869</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0757597398643063</v>
+        <v>0.07402464376334746</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1609783716222854</v>
+        <v>0.1567742387071048</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>71</v>
@@ -1633,19 +1633,19 @@
         <v>74175</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>58902</v>
+        <v>58996</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>90570</v>
+        <v>91484</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1626355600234968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1291473182068268</v>
+        <v>0.1293543650540903</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1985832920854755</v>
+        <v>0.2005865358180989</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -1654,19 +1654,19 @@
         <v>102042</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>84378</v>
+        <v>83636</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123378</v>
+        <v>122320</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1449447596838465</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1198544240804206</v>
+        <v>0.118800488416104</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1752506991152886</v>
+        <v>0.1737485984568126</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>220060</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>208016</v>
+        <v>209058</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>229144</v>
+        <v>229574</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8875987412857131</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8390216283777143</v>
+        <v>0.8432257612928953</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9242402601356937</v>
+        <v>0.9259753562366526</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>361</v>
@@ -1704,19 +1704,19 @@
         <v>381905</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>365510</v>
+        <v>364596</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>397178</v>
+        <v>397084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8373644399765032</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8014167079145245</v>
+        <v>0.7994134641819011</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8708526817931733</v>
+        <v>0.8706456349459097</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>573</v>
@@ -1725,19 +1725,19 @@
         <v>601965</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>580629</v>
+        <v>581687</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>619629</v>
+        <v>620371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8550552403161535</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8247493008847113</v>
+        <v>0.8262514015431874</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8801455759195794</v>
+        <v>0.881199511583896</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>2794</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7668</v>
+        <v>8308</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01316605777812214</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004160822795040082</v>
+        <v>0.004116555055608923</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03613022240502385</v>
+        <v>0.03914463646464485</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>205</v>
@@ -1850,19 +1850,19 @@
         <v>211778</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>185556</v>
+        <v>188816</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>238061</v>
+        <v>237978</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.223957386267968</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1962271807037246</v>
+        <v>0.1996752669954685</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2517518380304936</v>
+        <v>0.2516648233176131</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>208</v>
@@ -1871,19 +1871,19 @@
         <v>214572</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>187255</v>
+        <v>188464</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>240108</v>
+        <v>242780</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1853194106529187</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1617266653989699</v>
+        <v>0.1627708336890934</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2073744212449091</v>
+        <v>0.2096818024351014</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>209439</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204565</v>
+        <v>203925</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>211350</v>
+        <v>211359</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9868339422218778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9638697775949768</v>
+        <v>0.9608553635353552</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.99583917720496</v>
+        <v>0.9958834449443911</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>736</v>
@@ -1921,19 +1921,19 @@
         <v>733838</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>707555</v>
+        <v>707638</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>760060</v>
+        <v>756800</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.776042613732032</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7482481619695063</v>
+        <v>0.7483351766823867</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8037728192962753</v>
+        <v>0.8003247330045314</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>952</v>
@@ -1942,19 +1942,19 @@
         <v>943277</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>917741</v>
+        <v>915069</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>970594</v>
+        <v>969385</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8146805893470812</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.792625578755091</v>
+        <v>0.7903181975648986</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8382733346010302</v>
+        <v>0.8372291663109067</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>332736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>300342</v>
+        <v>300055</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>369209</v>
+        <v>368633</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1359002033069756</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1226693235808373</v>
+        <v>0.1225521913645498</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1507967207068261</v>
+        <v>0.1505613700541557</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>433</v>
@@ -2067,19 +2067,19 @@
         <v>442221</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>405627</v>
+        <v>404520</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>481835</v>
+        <v>480012</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1614025231223619</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1480462500713008</v>
+        <v>0.1476423275657816</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1758608652371459</v>
+        <v>0.1751954973334364</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>767</v>
@@ -2088,19 +2088,19 @@
         <v>774957</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>724858</v>
+        <v>724160</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>827835</v>
+        <v>830871</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1493677219365568</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1397114093007631</v>
+        <v>0.1395768322675197</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1595594553874391</v>
+        <v>0.1601446194092748</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>2115652</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2079179</v>
+        <v>2079755</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2148046</v>
+        <v>2148333</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8640997966930244</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8492032792931736</v>
+        <v>0.8494386299458443</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8773306764191625</v>
+        <v>0.8774478086354501</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2245</v>
@@ -2138,19 +2138,19 @@
         <v>2297643</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2258029</v>
+        <v>2259852</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2334237</v>
+        <v>2335344</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8385974768776381</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8241391347628538</v>
+        <v>0.8248045026665641</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.851953749928699</v>
+        <v>0.8523576724342187</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4311</v>
@@ -2159,19 +2159,19 @@
         <v>4413295</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4360417</v>
+        <v>4357381</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4463394</v>
+        <v>4464092</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8506322780634432</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8404405446125608</v>
+        <v>0.8398553805907252</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8602885906992369</v>
+        <v>0.8604231677324803</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>45650</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32945</v>
+        <v>34265</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60527</v>
+        <v>62727</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1154689597199403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08333238546916574</v>
+        <v>0.08667124527155044</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1530992001890443</v>
+        <v>0.1586641047448184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -2526,19 +2526,19 @@
         <v>23117</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14432</v>
+        <v>14517</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34412</v>
+        <v>35340</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07864166685115533</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04909585047044864</v>
+        <v>0.04938621395839665</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1170664160227744</v>
+        <v>0.1202227856320357</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -2547,19 +2547,19 @@
         <v>68767</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>52667</v>
+        <v>52752</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>85134</v>
+        <v>86984</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0997638021082026</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07640593080152207</v>
+        <v>0.07652941113289038</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1235085249500168</v>
+        <v>0.1261926334781958</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>349694</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>334817</v>
+        <v>332617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>362399</v>
+        <v>361079</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8845310402800597</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8469007998109557</v>
+        <v>0.8413358952551816</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9166676145308338</v>
+        <v>0.9133287547284495</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>244</v>
@@ -2597,19 +2597,19 @@
         <v>270837</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>259542</v>
+        <v>258614</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>279522</v>
+        <v>279437</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9213583331488446</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8829335839772255</v>
+        <v>0.8797772143679645</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9509041495295514</v>
+        <v>0.9506137860416035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>570</v>
@@ -2618,19 +2618,19 @@
         <v>620532</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>604165</v>
+        <v>602315</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>636632</v>
+        <v>636547</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9002361978917974</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8764914750499833</v>
+        <v>0.8738073665218044</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9235940691984779</v>
+        <v>0.9234705888671096</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>62773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>47183</v>
+        <v>48023</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>80023</v>
+        <v>79393</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1635882149620931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1229618722014884</v>
+        <v>0.1251502631488699</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2085426654969892</v>
+        <v>0.2069001604227551</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -2743,19 +2743,19 @@
         <v>26104</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17041</v>
+        <v>17484</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37235</v>
+        <v>37748</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08326511515477697</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05435558081042918</v>
+        <v>0.05577009772095892</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.118772390128292</v>
+        <v>0.1204076836221363</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -2764,19 +2764,19 @@
         <v>88876</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70603</v>
+        <v>69120</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110741</v>
+        <v>107805</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1274716601054058</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1012635170585165</v>
+        <v>0.09913585480795893</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1588317456972136</v>
+        <v>0.154619930961412</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>320951</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>303701</v>
+        <v>304331</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>336541</v>
+        <v>335701</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8364117850379069</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7914573345030107</v>
+        <v>0.7930998395772449</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8770381277985116</v>
+        <v>0.8748497368511301</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>257</v>
@@ -2814,19 +2814,19 @@
         <v>287397</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>276266</v>
+        <v>275753</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>296460</v>
+        <v>296017</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.916734884845223</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.881227609871708</v>
+        <v>0.8795923163778636</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9456444191895708</v>
+        <v>0.944229902279041</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>546</v>
@@ -2835,19 +2835,19 @@
         <v>608349</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>586484</v>
+        <v>589420</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>626622</v>
+        <v>628105</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8725283398945942</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8411682543027857</v>
+        <v>0.845380069038588</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8987364829414826</v>
+        <v>0.9008641451920411</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>81656</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>64148</v>
+        <v>66863</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100343</v>
+        <v>101449</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1524886631324901</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1197928682007692</v>
+        <v>0.124863115686137</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1873862669582</v>
+        <v>0.1894507098529793</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>50</v>
@@ -2960,19 +2960,19 @@
         <v>54341</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42528</v>
+        <v>41898</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70585</v>
+        <v>69031</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2257955147624295</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.176710468578991</v>
+        <v>0.1740938197549514</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2932896381218988</v>
+        <v>0.2868344499621183</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -2981,19 +2981,19 @@
         <v>135997</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>116361</v>
+        <v>114748</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>158874</v>
+        <v>159265</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1752192674094265</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1499206724212473</v>
+        <v>0.1478424592605546</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.204693640594524</v>
+        <v>0.2051979539137747</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>453832</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>435145</v>
+        <v>434039</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>471340</v>
+        <v>468625</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8475113368675099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8126137330418</v>
+        <v>0.8105492901470207</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8802071317992308</v>
+        <v>0.8751368843138629</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>176</v>
@@ -3031,19 +3031,19 @@
         <v>186325</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>170081</v>
+        <v>171635</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>198138</v>
+        <v>198768</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7742044852375705</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7067103618781015</v>
+        <v>0.7131655500378817</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.823289531421009</v>
+        <v>0.8259061802450486</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>609</v>
@@ -3052,19 +3052,19 @@
         <v>640156</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>617279</v>
+        <v>616888</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>659792</v>
+        <v>661405</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8247807325905735</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7953063594054759</v>
+        <v>0.7948020460862252</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8500793275787527</v>
+        <v>0.8521575407394454</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>161488</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>138837</v>
+        <v>138738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>188093</v>
+        <v>185110</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.166015595347946</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1427296989311746</v>
+        <v>0.1426274530687252</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.193365994320897</v>
+        <v>0.1902998181293541</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -3177,19 +3177,19 @@
         <v>94215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77033</v>
+        <v>75623</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114459</v>
+        <v>114329</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1347992914878827</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1102162188678631</v>
+        <v>0.1081982349789696</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1637644288061206</v>
+        <v>0.1635773530446814</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>234</v>
@@ -3198,19 +3198,19 @@
         <v>255703</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>225891</v>
+        <v>224925</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>285327</v>
+        <v>285918</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1529639111539899</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1351302872716144</v>
+        <v>0.1345520935504452</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1706850546466719</v>
+        <v>0.1710390168970197</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>811241</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>784636</v>
+        <v>787619</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>833892</v>
+        <v>833991</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8339844046520539</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8066340056791029</v>
+        <v>0.809700181870646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8572703010688254</v>
+        <v>0.8573725469312748</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>560</v>
@@ -3248,19 +3248,19 @@
         <v>604712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>584468</v>
+        <v>584598</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>621894</v>
+        <v>623304</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8652007085121173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8362355711938795</v>
+        <v>0.8364226469553188</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8897837811321369</v>
+        <v>0.8918017650210304</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1325</v>
@@ -3269,19 +3269,19 @@
         <v>1415953</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1386329</v>
+        <v>1385738</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1445765</v>
+        <v>1446731</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8470360888460101</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8293149453533281</v>
+        <v>0.8289609831029803</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8648697127283854</v>
+        <v>0.865447906449555</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>75964</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>60331</v>
+        <v>62381</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>92843</v>
+        <v>93165</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1883511807631746</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1495882013744177</v>
+        <v>0.1546729412211016</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2302009658139336</v>
+        <v>0.2310007341459076</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>149</v>
@@ -3394,19 +3394,19 @@
         <v>164539</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139937</v>
+        <v>143897</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>188823</v>
+        <v>188146</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2456449174458226</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2089164129288442</v>
+        <v>0.2148281830759557</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2818998671439464</v>
+        <v>0.2808892717460482</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>220</v>
@@ -3415,19 +3415,19 @@
         <v>240503</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>211545</v>
+        <v>212350</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>268217</v>
+        <v>268015</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2241124403622073</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1971280208354137</v>
+        <v>0.1978777781020296</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2499376854683633</v>
+        <v>0.2497496310651292</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>327348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>310469</v>
+        <v>310147</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>342981</v>
+        <v>340931</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8116488192368254</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7697990341860665</v>
+        <v>0.7689992658540917</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8504117986255824</v>
+        <v>0.8453270587788984</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>472</v>
@@ -3465,19 +3465,19 @@
         <v>505284</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>481000</v>
+        <v>481677</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>529886</v>
+        <v>525926</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7543550825541774</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.718100132856054</v>
+        <v>0.7191107282539519</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7910835870711561</v>
+        <v>0.7851718169240449</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>788</v>
@@ -3486,19 +3486,19 @@
         <v>832632</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>804918</v>
+        <v>805120</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>861590</v>
+        <v>860785</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7758875596377928</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7500623145316369</v>
+        <v>0.7502503689348707</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8028719791645863</v>
+        <v>0.8021222218979706</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>8661</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3967</v>
+        <v>3870</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16412</v>
+        <v>15529</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03915462966957244</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01793202268680751</v>
+        <v>0.01749383833843505</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07419315649939977</v>
+        <v>0.07020111309559565</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>193</v>
@@ -3611,19 +3611,19 @@
         <v>209420</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>185154</v>
+        <v>182692</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>236444</v>
+        <v>239120</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2263052816446394</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2000829050670801</v>
+        <v>0.1974231395086223</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2555085828003104</v>
+        <v>0.2584009903099011</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>202</v>
@@ -3632,19 +3632,19 @@
         <v>218081</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>191900</v>
+        <v>192037</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>246639</v>
+        <v>248176</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1901996853002555</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1673665555997598</v>
+        <v>0.1674857363414292</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2151066704921603</v>
+        <v>0.2164473211062205</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>212542</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>204791</v>
+        <v>205674</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>217236</v>
+        <v>217333</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9608453703304276</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9258068435006003</v>
+        <v>0.9297988869044044</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9820679773131925</v>
+        <v>0.9825061616615649</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>677</v>
@@ -3682,19 +3682,19 @@
         <v>715965</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>688941</v>
+        <v>686265</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>740231</v>
+        <v>742693</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7736947183553606</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7444914171996896</v>
+        <v>0.7415990096900992</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7999170949329198</v>
+        <v>0.8025768604913778</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>888</v>
@@ -3703,19 +3703,19 @@
         <v>928507</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>899949</v>
+        <v>898412</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>954688</v>
+        <v>954551</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8098003146997445</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7848933295078395</v>
+        <v>0.7835526788937791</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8326334444002401</v>
+        <v>0.8325142636585707</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>436192</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>395999</v>
+        <v>398348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>478543</v>
+        <v>481947</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1498015492880566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1359981666684651</v>
+        <v>0.1368048439998591</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1643461391703628</v>
+        <v>0.1655151360068921</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>525</v>
@@ -3828,19 +3828,19 @@
         <v>571735</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>525905</v>
+        <v>529383</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>613279</v>
+        <v>615688</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1819504734708685</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1673653369428502</v>
+        <v>0.1684722656542617</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1951714836273747</v>
+        <v>0.1959380165791301</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>918</v>
@@ -3849,19 +3849,19 @@
         <v>1007927</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>947864</v>
+        <v>955756</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1067403</v>
+        <v>1074060</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1664879094611967</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1565668209745527</v>
+        <v>0.1578702816292433</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1763120722938073</v>
+        <v>0.1774115650402955</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2475608</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2433257</v>
+        <v>2429853</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2515801</v>
+        <v>2513452</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8501984507119433</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8356538608296372</v>
+        <v>0.834484863993108</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8640018333315349</v>
+        <v>0.863195156000141</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2386</v>
@@ -3899,19 +3899,19 @@
         <v>2570522</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2528978</v>
+        <v>2526569</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2616352</v>
+        <v>2612874</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8180495265291315</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8048285163726252</v>
+        <v>0.8040619834208699</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8326346630571498</v>
+        <v>0.8315277343457381</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4726</v>
@@ -3920,19 +3920,19 @@
         <v>5046130</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4986654</v>
+        <v>4979997</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5106193</v>
+        <v>5098301</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8335120905388033</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8236879277061928</v>
+        <v>0.8225884349597045</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8434331790254472</v>
+        <v>0.8421297183707567</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>28473</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19201</v>
+        <v>18459</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>41777</v>
+        <v>41044</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07345583212048283</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0495351775885489</v>
+        <v>0.04762147036500464</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.107780931229539</v>
+        <v>0.1058899275946046</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -4287,19 +4287,19 @@
         <v>28630</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19787</v>
+        <v>18485</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43820</v>
+        <v>42209</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09065396871640993</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06265218314281737</v>
+        <v>0.05853133761613541</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1387521974867652</v>
+        <v>0.133650157614401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -4308,19 +4308,19 @@
         <v>57102</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>43619</v>
+        <v>43083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>75823</v>
+        <v>73410</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08117720802941558</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06200881040314855</v>
+        <v>0.0612473317500427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1077910697798446</v>
+        <v>0.1043603174467772</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>359141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>345837</v>
+        <v>346570</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>368413</v>
+        <v>369155</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9265441678795172</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.892219068770461</v>
+        <v>0.8941100724053954</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9504648224114511</v>
+        <v>0.9523785296349954</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>279</v>
@@ -4358,19 +4358,19 @@
         <v>287186</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>271996</v>
+        <v>273607</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>296029</v>
+        <v>297331</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.90934603128359</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8612478025132345</v>
+        <v>0.8663498423855974</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9373478168571826</v>
+        <v>0.9414686623838643</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>613</v>
@@ -4379,19 +4379,19 @@
         <v>646328</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>627607</v>
+        <v>630020</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>659811</v>
+        <v>660347</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9188227919705845</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8922089302201553</v>
+        <v>0.8956396825532228</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9379911895968513</v>
+        <v>0.9387526682499572</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>32901</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>21713</v>
+        <v>22639</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>45247</v>
+        <v>45923</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1038994704191328</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0685703986635634</v>
+        <v>0.07149466126746057</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1428880622183696</v>
+        <v>0.1450229990413356</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>20</v>
@@ -4504,19 +4504,19 @@
         <v>22146</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13884</v>
+        <v>13880</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>33167</v>
+        <v>32795</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06639059740926638</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04162205668611057</v>
+        <v>0.04160918386233861</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09942883999294351</v>
+        <v>0.09831228913600878</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>50</v>
@@ -4525,19 +4525,19 @@
         <v>55047</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42073</v>
+        <v>41465</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>72155</v>
+        <v>72095</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.08465711329582234</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06470395211306232</v>
+        <v>0.06376895539502624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1109682743797609</v>
+        <v>0.1108758634335453</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>283757</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>271411</v>
+        <v>270735</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>294945</v>
+        <v>294019</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8961005295808672</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8571119377816302</v>
+        <v>0.8549770009586649</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9314296013364366</v>
+        <v>0.9285053387325395</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>297</v>
@@ -4575,19 +4575,19 @@
         <v>311429</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>300408</v>
+        <v>300780</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>319691</v>
+        <v>319695</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9336094025907337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9005711600070564</v>
+        <v>0.9016877108639912</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9583779433138895</v>
+        <v>0.9583908161376613</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>563</v>
@@ -4596,19 +4596,19 @@
         <v>595185</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>578077</v>
+        <v>578137</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>608159</v>
+        <v>608767</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9153428867041776</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.889031725620239</v>
+        <v>0.8891241365664547</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9352960478869377</v>
+        <v>0.9362310446049739</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>62956</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>49686</v>
+        <v>47680</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>77963</v>
+        <v>77536</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1553660553857333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1226173403589892</v>
+        <v>0.1176671679193612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1924006368520944</v>
+        <v>0.1913477690497254</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>19</v>
@@ -4721,19 +4721,19 @@
         <v>22272</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13909</v>
+        <v>13526</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32709</v>
+        <v>32080</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1597490947818208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09976032603195338</v>
+        <v>0.09701548823214229</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2346091860537416</v>
+        <v>0.230096718079133</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>80</v>
@@ -4742,19 +4742,19 @@
         <v>85229</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>70224</v>
+        <v>68191</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105190</v>
+        <v>103606</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.156488077174853</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1289374745412769</v>
+        <v>0.1252060461306714</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1931392936846834</v>
+        <v>0.190230505994064</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>342255</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>327248</v>
+        <v>327675</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>355525</v>
+        <v>357531</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8446339446142667</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8075993631479056</v>
+        <v>0.8086522309502744</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8773826596410108</v>
+        <v>0.8823328320806387</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>110</v>
@@ -4792,19 +4792,19 @@
         <v>117149</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>106712</v>
+        <v>107341</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>125512</v>
+        <v>125895</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8402509052181791</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7653908139462585</v>
+        <v>0.769903281920867</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9002396739680468</v>
+        <v>0.9029845117678579</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>437</v>
@@ -4813,19 +4813,19 @@
         <v>459404</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>439443</v>
+        <v>441027</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>474409</v>
+        <v>476442</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8435119228251471</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8068607063153166</v>
+        <v>0.8097694940059359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8710625254587232</v>
+        <v>0.8747939538693283</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>106756</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>88926</v>
+        <v>89986</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126872</v>
+        <v>127247</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1213821883355783</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1011095248962807</v>
+        <v>0.102314351747625</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1442538610594656</v>
+        <v>0.1446805797966139</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -4938,19 +4938,19 @@
         <v>53376</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>40710</v>
+        <v>40088</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68905</v>
+        <v>70171</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07803190715545891</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.059515368604687</v>
+        <v>0.05860518132815339</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1007330195458147</v>
+        <v>0.1025842154942183</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>153</v>
@@ -4959,19 +4959,19 @@
         <v>160132</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>138114</v>
+        <v>134051</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>185389</v>
+        <v>185021</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.102416878082024</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08833454491913018</v>
+        <v>0.08573558194487207</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1185705300495285</v>
+        <v>0.1183349560783254</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>772749</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>752633</v>
+        <v>752258</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>790579</v>
+        <v>789519</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8786178116644217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8557461389405344</v>
+        <v>0.8553194202033861</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8988904751037196</v>
+        <v>0.8976856482523751</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>615</v>
@@ -5009,19 +5009,19 @@
         <v>630655</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>615126</v>
+        <v>613860</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>643321</v>
+        <v>643943</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9219680928445411</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8992669804541852</v>
+        <v>0.8974157845057816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.940484631395313</v>
+        <v>0.941394818671847</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1351</v>
@@ -5030,19 +5030,19 @@
         <v>1403404</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1378147</v>
+        <v>1378515</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1425422</v>
+        <v>1429485</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.897583121917976</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8814294699504714</v>
+        <v>0.8816650439216746</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9116654550808698</v>
+        <v>0.9142644180551278</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>42877</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>31640</v>
+        <v>31753</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56803</v>
+        <v>56215</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1008468447797098</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07441793719575598</v>
+        <v>0.07468312839267026</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1336013359696477</v>
+        <v>0.1322190543828351</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -5155,19 +5155,19 @@
         <v>78296</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>61613</v>
+        <v>60290</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>96109</v>
+        <v>96049</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1404452608700826</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1105207522956613</v>
+        <v>0.1081465108395901</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1723988042348538</v>
+        <v>0.1722918773571225</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>115</v>
@@ -5176,19 +5176,19 @@
         <v>121173</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>101671</v>
+        <v>102250</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>143084</v>
+        <v>140734</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1233119703554313</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1034658290447208</v>
+        <v>0.1040558468672798</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.145610624035883</v>
+        <v>0.1432185426419504</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>382292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>368366</v>
+        <v>368954</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>393529</v>
+        <v>393416</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8991531552202902</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8663986640303528</v>
+        <v>0.8677809456171652</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.925582062804244</v>
+        <v>0.92531687160733</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>462</v>
@@ -5226,19 +5226,19 @@
         <v>479185</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>461372</v>
+        <v>461432</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>495868</v>
+        <v>497191</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8595547391299174</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8276011957651461</v>
+        <v>0.8277081226428775</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8894792477043387</v>
+        <v>0.89185348916041</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>828</v>
@@ -5247,19 +5247,19 @@
         <v>861477</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>839566</v>
+        <v>841916</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>880979</v>
+        <v>880400</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8766880296445687</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.854389375964117</v>
+        <v>0.8567814573580497</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8965341709552792</v>
+        <v>0.8959441531327202</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>9763</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4180</v>
+        <v>4815</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>17505</v>
+        <v>17890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.040416951753084</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01730340897437968</v>
+        <v>0.01993186658066911</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07246905860912875</v>
+        <v>0.07406291366380564</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>110</v>
@@ -5372,19 +5372,19 @@
         <v>125916</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>104798</v>
+        <v>106967</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>149190</v>
+        <v>149985</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1525724619781851</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1269833008084635</v>
+        <v>0.1296118404223052</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1807731738448724</v>
+        <v>0.1817368199464089</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -5393,19 +5393,19 @@
         <v>135679</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>113752</v>
+        <v>114812</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>158309</v>
+        <v>160561</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1271787522537098</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1066257492147978</v>
+        <v>0.107619507746296</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1483908081115535</v>
+        <v>0.1505017197034026</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>231785</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>224043</v>
+        <v>223658</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>237368</v>
+        <v>236733</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.959583048246916</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9275309413908712</v>
+        <v>0.9259370863361939</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9826965910256203</v>
+        <v>0.9800681334193309</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>658</v>
@@ -5443,19 +5443,19 @@
         <v>699373</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>676099</v>
+        <v>675304</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>720491</v>
+        <v>718322</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8474275380218149</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8192268261551277</v>
+        <v>0.8182631800535913</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8730166991915365</v>
+        <v>0.8703881595776949</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>879</v>
@@ -5464,19 +5464,19 @@
         <v>931158</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>908528</v>
+        <v>906276</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>953085</v>
+        <v>952025</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8728212477462902</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8516091918884467</v>
+        <v>0.8494982802965975</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8933742507852023</v>
+        <v>0.892380492253704</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>283725</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>253631</v>
+        <v>254711</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>319415</v>
+        <v>319211</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1068360274470549</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09550422354430428</v>
+        <v>0.09591073028912274</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1202751422692271</v>
+        <v>0.1201981610594265</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>295</v>
@@ -5589,19 +5589,19 @@
         <v>330637</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>297060</v>
+        <v>298458</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>369474</v>
+        <v>369246</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1157848806005683</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1040265419428126</v>
+        <v>0.1045162524415114</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1293852456726513</v>
+        <v>0.1293052038093514</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>568</v>
@@ -5610,19 +5610,19 @@
         <v>614362</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>570600</v>
+        <v>563900</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>664308</v>
+        <v>666430</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1114727514489142</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1035324523923427</v>
+        <v>0.1023166963554398</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1205352699165603</v>
+        <v>0.120920291603091</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>2371980</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2336290</v>
+        <v>2336494</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2402074</v>
+        <v>2400994</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8931639725529451</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8797248577307731</v>
+        <v>0.8798018389405734</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9044957764556957</v>
+        <v>0.9040892697108772</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2421</v>
@@ -5660,19 +5660,19 @@
         <v>2524976</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2486139</v>
+        <v>2486367</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2558553</v>
+        <v>2557155</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8842151193994318</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8706147543273485</v>
+        <v>0.8706947961906484</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8959734580571874</v>
+        <v>0.8954837475584883</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4671</v>
@@ -5681,19 +5681,19 @@
         <v>4896956</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4847010</v>
+        <v>4844888</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4940718</v>
+        <v>4947418</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8885272485510859</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8794647300834401</v>
+        <v>0.8790797083969094</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8964675476076573</v>
+        <v>0.8976833036445603</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>45849</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>35416</v>
+        <v>34070</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>58284</v>
+        <v>59720</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08470800202155174</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06543191236009982</v>
+        <v>0.0629447973131279</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1076807208705313</v>
+        <v>0.1103347144549184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>54</v>
@@ -6048,19 +6048,19 @@
         <v>34393</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>26524</v>
+        <v>25763</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45376</v>
+        <v>44320</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0714548493857068</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05510568152644182</v>
+        <v>0.05352593612430175</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09427264551085712</v>
+        <v>0.09207872040176884</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -6069,19 +6069,19 @@
         <v>80242</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>65614</v>
+        <v>67064</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>94914</v>
+        <v>98358</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07846982735258387</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06416459526749686</v>
+        <v>0.06558217070038268</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09281754296211638</v>
+        <v>0.09618475266824138</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>495414</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>482979</v>
+        <v>481543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>505847</v>
+        <v>507193</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9152919979784482</v>
+        <v>0.9152919979784483</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8923192791294687</v>
+        <v>0.8896652855450813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9345680876399001</v>
+        <v>0.937055202686872</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>621</v>
@@ -6119,19 +6119,19 @@
         <v>446934</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>435951</v>
+        <v>437007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>454803</v>
+        <v>455564</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9285451506142931</v>
+        <v>0.9285451506142932</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9057273544891427</v>
+        <v>0.907921279598231</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9448943184735582</v>
+        <v>0.9464740638756981</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1107</v>
@@ -6140,19 +6140,19 @@
         <v>942348</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>927676</v>
+        <v>924232</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>956976</v>
+        <v>955526</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9215301726474162</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9071824570378841</v>
+        <v>0.9038152473317588</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9358354047325034</v>
+        <v>0.9344178292996173</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>54945</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43040</v>
+        <v>43384</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68880</v>
+        <v>69351</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1146279544698106</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08979105885494686</v>
+        <v>0.09050831350112482</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1436995693652482</v>
+        <v>0.1446830831247305</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -6265,19 +6265,19 @@
         <v>29025</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>21740</v>
+        <v>20993</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39833</v>
+        <v>38647</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0694500815092844</v>
+        <v>0.06945008150928443</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05202006256545408</v>
+        <v>0.0502313994747373</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09531169325262996</v>
+        <v>0.09247398650722506</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -6286,19 +6286,19 @@
         <v>83970</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>68759</v>
+        <v>68264</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>101451</v>
+        <v>100943</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.09358511023225247</v>
+        <v>0.09358511023225245</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07663231501876717</v>
+        <v>0.07608060659907788</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1130686037550907</v>
+        <v>0.1125019053602846</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>424387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>410452</v>
+        <v>409981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>436292</v>
+        <v>435948</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8853720455301896</v>
+        <v>0.8853720455301894</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8563004306347516</v>
+        <v>0.8553169168752696</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9102089411450531</v>
+        <v>0.9094916864988751</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>535</v>
@@ -6336,19 +6336,19 @@
         <v>388895</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>378087</v>
+        <v>379273</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>396180</v>
+        <v>396927</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9305499184907154</v>
+        <v>0.9305499184907156</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9046883067473699</v>
+        <v>0.9075260134927747</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9479799374345458</v>
+        <v>0.9497686005252626</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>945</v>
@@ -6357,19 +6357,19 @@
         <v>813283</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>795802</v>
+        <v>796310</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>828494</v>
+        <v>828989</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9064148897677474</v>
+        <v>0.9064148897677476</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8869313962449092</v>
+        <v>0.8874980946397159</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.923367684981233</v>
+        <v>0.9239193934009221</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>55906</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43794</v>
+        <v>43630</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70913</v>
+        <v>70587</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1205228282630777</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09441201284624812</v>
+        <v>0.09405735440765503</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1528740282932755</v>
+        <v>0.1521714568229618</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>49</v>
@@ -6482,19 +6482,19 @@
         <v>29601</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22612</v>
+        <v>22256</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38979</v>
+        <v>38774</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1601487048830944</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1223373409058881</v>
+        <v>0.120412405957596</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2108900113814089</v>
+        <v>0.2097760025758538</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>120</v>
@@ -6503,19 +6503,19 @@
         <v>85507</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>71808</v>
+        <v>70598</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103654</v>
+        <v>101964</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1318133947815715</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1106956844028907</v>
+        <v>0.1088307562234203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1597874449269289</v>
+        <v>0.1571826332283559</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>407959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>392952</v>
+        <v>393278</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>420071</v>
+        <v>420235</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8794771717369223</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8471259717067244</v>
+        <v>0.847828543177038</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9055879871537517</v>
+        <v>0.9059426455923449</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>236</v>
@@ -6553,19 +6553,19 @@
         <v>155232</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>145854</v>
+        <v>146059</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162221</v>
+        <v>162577</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8398512951169056</v>
+        <v>0.8398512951169057</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7891099886185909</v>
+        <v>0.7902239974241463</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8776626590941119</v>
+        <v>0.8795875940424041</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>643</v>
@@ -6574,19 +6574,19 @@
         <v>563191</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>545044</v>
+        <v>546734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>576890</v>
+        <v>578100</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8681866052184285</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8402125550730711</v>
+        <v>0.8428173667716441</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8893043155971093</v>
+        <v>0.8911692437765798</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>141994</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>120580</v>
+        <v>122336</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>167702</v>
+        <v>166986</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1295918885683465</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1100482419904572</v>
+        <v>0.1116512374059596</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1530547235296898</v>
+        <v>0.1524012195968999</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -6699,19 +6699,19 @@
         <v>77870</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65849</v>
+        <v>65096</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92208</v>
+        <v>91432</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09305842877893267</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07869192380056894</v>
+        <v>0.07779243235810179</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1101923805039377</v>
+        <v>0.1092649869472538</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>313</v>
@@ -6720,19 +6720,19 @@
         <v>219864</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>196572</v>
+        <v>195606</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>245906</v>
+        <v>246193</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1137724745030743</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1017195418914573</v>
+        <v>0.1012198726691224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1272481743345739</v>
+        <v>0.1273970650772908</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>953705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927997</v>
+        <v>928713</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>975119</v>
+        <v>973363</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8704081114316536</v>
+        <v>0.8704081114316535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8469452764703104</v>
+        <v>0.8475987804031003</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8899517580095427</v>
+        <v>0.8883487625940404</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1058</v>
@@ -6770,19 +6770,19 @@
         <v>758920</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>744582</v>
+        <v>745358</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>770941</v>
+        <v>771694</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9069415712210672</v>
+        <v>0.9069415712210673</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8898076194960624</v>
+        <v>0.8907350130527462</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9213080761994313</v>
+        <v>0.9222075676418982</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1970</v>
@@ -6791,19 +6791,19 @@
         <v>1712625</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1686583</v>
+        <v>1686296</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1735917</v>
+        <v>1736883</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8862275254969257</v>
+        <v>0.8862275254969256</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8727518256654261</v>
+        <v>0.8726029349227094</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8982804581085428</v>
+        <v>0.8987801273308778</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>40830</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29880</v>
+        <v>30203</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>53102</v>
+        <v>51668</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08008201799767983</v>
+        <v>0.08008201799767986</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05860663496114483</v>
+        <v>0.05923985625876497</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1041518843649844</v>
+        <v>0.1013396846109084</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>216</v>
@@ -6916,19 +6916,19 @@
         <v>116533</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>101386</v>
+        <v>102323</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>132353</v>
+        <v>133008</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1468583104969988</v>
+        <v>0.1468583104969989</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1277698428649883</v>
+        <v>0.1289512471183829</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1667949212967167</v>
+        <v>0.1676206077100374</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>269</v>
@@ -6937,19 +6937,19 @@
         <v>157362</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>138372</v>
+        <v>138876</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177772</v>
+        <v>176464</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1207366278961717</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1061658427670602</v>
+        <v>0.1065525716957477</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1363962187646399</v>
+        <v>0.1353920841747746</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>469018</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>456746</v>
+        <v>458180</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>479968</v>
+        <v>479645</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.91991798200232</v>
+        <v>0.9199179820023202</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8958481156350155</v>
+        <v>0.8986603153890917</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9413933650388548</v>
+        <v>0.9407601437412351</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1021</v>
@@ -6987,19 +6987,19 @@
         <v>676972</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>661152</v>
+        <v>660497</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>692119</v>
+        <v>691182</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8531416895030011</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.833205078703283</v>
+        <v>0.8323793922899628</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8722301571350113</v>
+        <v>0.8710487528816172</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1462</v>
@@ -7008,19 +7008,19 @@
         <v>1145991</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1125581</v>
+        <v>1126889</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1164981</v>
+        <v>1164477</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8792633721038282</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8636037812353602</v>
+        <v>0.8646079158252254</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8938341572329399</v>
+        <v>0.8934474283042524</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>5735</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1518</v>
+        <v>1769</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15037</v>
+        <v>17250</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02539860280062584</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006723377484389474</v>
+        <v>0.007833957571475553</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06659649070955216</v>
+        <v>0.0764005611635992</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>249</v>
@@ -7133,19 +7133,19 @@
         <v>138641</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>121785</v>
+        <v>121483</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>157598</v>
+        <v>156403</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1693339168347282</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1487463174508395</v>
+        <v>0.1483772645627597</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.192487860445537</v>
+        <v>0.1910288446264767</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>253</v>
@@ -7154,19 +7154,19 @@
         <v>144375</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>127066</v>
+        <v>124456</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>165405</v>
+        <v>164275</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1382206501462746</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1216492734843466</v>
+        <v>0.1191505906673664</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.158353683089447</v>
+        <v>0.1572714742332846</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>220052</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210750</v>
+        <v>208537</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224269</v>
+        <v>224018</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9746013971993742</v>
+        <v>0.9746013971993741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9334035092904486</v>
+        <v>0.9235994388364004</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9932766225156107</v>
+        <v>0.9921660424285244</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>878</v>
@@ -7204,19 +7204,19 @@
         <v>680101</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>661144</v>
+        <v>662339</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>696957</v>
+        <v>697259</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8306660831652717</v>
+        <v>0.8306660831652719</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8075121395544629</v>
+        <v>0.8089711553735233</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8512536825491605</v>
+        <v>0.8516227354372402</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>979</v>
@@ -7225,19 +7225,19 @@
         <v>900154</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>879124</v>
+        <v>880254</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>917463</v>
+        <v>920073</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8617793498537254</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.841646316910553</v>
+        <v>0.8427285257667159</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8783507265156533</v>
+        <v>0.8808494093326337</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>345259</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>308151</v>
+        <v>314709</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>378120</v>
+        <v>383056</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1041254371585113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09293413795275723</v>
+        <v>0.09491218127593466</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1140359814527559</v>
+        <v>0.1155247309031519</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>756</v>
@@ -7350,19 +7350,19 @@
         <v>426063</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>396442</v>
+        <v>397314</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>457184</v>
+        <v>459256</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1205911002211468</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1122075401701806</v>
+        <v>0.1124543367553033</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.129399482667481</v>
+        <v>0.1299860748099446</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1182</v>
@@ -7371,19 +7371,19 @@
         <v>771321</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>728508</v>
+        <v>729682</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>818211</v>
+        <v>820454</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1126195040912858</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1063684689108729</v>
+        <v>0.1065398274876459</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1194658778791192</v>
+        <v>0.1197933802279792</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2970536</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2937675</v>
+        <v>2932739</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3007644</v>
+        <v>3001086</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8958745628414887</v>
+        <v>0.8958745628414886</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8859640185472438</v>
+        <v>0.8844752690968481</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9070658620472426</v>
+        <v>0.9050878187240653</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4349</v>
@@ -7421,19 +7421,19 @@
         <v>3107055</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3075934</v>
+        <v>3073862</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3136676</v>
+        <v>3135804</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8794088997788531</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8706005173325196</v>
+        <v>0.8700139251900555</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8877924598298202</v>
+        <v>0.8875456632446967</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7106</v>
@@ -7442,19 +7442,19 @@
         <v>6077592</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6030702</v>
+        <v>6028459</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6120405</v>
+        <v>6119231</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8873804959087142</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8805341221208806</v>
+        <v>0.8802066197720209</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.893631531089127</v>
+        <v>0.8934601725123539</v>
       </c>
     </row>
     <row r="24">
